--- a/4. Palabras de estructura triplicada/PET-MTDeterminista2C.xlsx
+++ b/4. Palabras de estructura triplicada/PET-MTDeterminista2C.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P2MT\Practica_MT_TAC\4. Palabras de estructura triplicada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\Entrega Final\4. Palabras de estructura triplicada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D43A9-904E-4562-AF5B-3D5EBB813793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C87AB-F70E-40E6-A253-15BE0959B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -220,17 +223,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES" sz="1200"/>
-              <a:t>SUMA UNO</a:t>
+              <a:rPr lang="es-ES" sz="900"/>
+              <a:t>PALABRAS ESTRUCTURA TRIPLICADA - MT DETERMINISTA 2 CINTAS</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
-              <a:t> - MT DETERMINISTA 2 CINTAS</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10504472271914132"/>
+          <c:y val="6.3226397064702067E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,6 +1270,89 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v xml:space="preserve">  PASOS</v>
+          </cell>
+          <cell r="C4">
+            <v>8</v>
+          </cell>
+          <cell r="D4">
+            <v>14</v>
+          </cell>
+          <cell r="E4">
+            <v>20</v>
+          </cell>
+          <cell r="F4">
+            <v>26</v>
+          </cell>
+          <cell r="G4">
+            <v>32</v>
+          </cell>
+          <cell r="H4">
+            <v>38</v>
+          </cell>
+          <cell r="I4">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v xml:space="preserve">  DIF 1</v>
+          </cell>
+          <cell r="D5">
+            <v>6</v>
+          </cell>
+          <cell r="E5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>6</v>
+          </cell>
+          <cell r="G5">
+            <v>6</v>
+          </cell>
+          <cell r="H5">
+            <v>6</v>
+          </cell>
+          <cell r="I5">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v xml:space="preserve">  DIF 2</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,15 +1655,15 @@
   <dimension ref="B2:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1602,7 +1691,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1735,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1779,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1827,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1872,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
